--- a/backups/latest.xlsx
+++ b/backups/latest.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P257"/>
+  <dimension ref="A1:P258"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -11423,13 +11423,13 @@
     </row>
     <row r="221">
       <c r="A221" t="str">
-        <v>2026-03-21</v>
+        <v>2026-03-20</v>
       </c>
       <c r="B221" t="str">
-        <v>Saturday</v>
+        <v>Friday</v>
       </c>
       <c r="C221" t="str">
-        <v>417 Meadow Lane</v>
+        <v>Oxford</v>
       </c>
       <c r="D221" t="str">
         <v>Oxford</v>
@@ -11473,10 +11473,10 @@
     </row>
     <row r="222">
       <c r="A222" t="str">
-        <v>2026-03-22</v>
+        <v>2026-03-21</v>
       </c>
       <c r="B222" t="str">
-        <v>Sunday</v>
+        <v>Saturday</v>
       </c>
       <c r="C222" t="str">
         <v>417 Meadow Lane</v>
@@ -11523,10 +11523,10 @@
     </row>
     <row r="223">
       <c r="A223" t="str">
-        <v>2026-03-23</v>
+        <v>2026-03-22</v>
       </c>
       <c r="B223" t="str">
-        <v>Monday</v>
+        <v>Sunday</v>
       </c>
       <c r="C223" t="str">
         <v>417 Meadow Lane</v>
@@ -11573,10 +11573,10 @@
     </row>
     <row r="224">
       <c r="A224" t="str">
-        <v>2026-03-24</v>
+        <v>2026-03-23</v>
       </c>
       <c r="B224" t="str">
-        <v>Tuesday</v>
+        <v>Monday</v>
       </c>
       <c r="C224" t="str">
         <v>417 Meadow Lane</v>
@@ -11623,10 +11623,10 @@
     </row>
     <row r="225">
       <c r="A225" t="str">
-        <v>2026-03-25</v>
+        <v>2026-03-24</v>
       </c>
       <c r="B225" t="str">
-        <v>Wednesday</v>
+        <v>Tuesday</v>
       </c>
       <c r="C225" t="str">
         <v>417 Meadow Lane</v>
@@ -11673,10 +11673,10 @@
     </row>
     <row r="226">
       <c r="A226" t="str">
-        <v>2026-03-26</v>
+        <v>2026-03-25</v>
       </c>
       <c r="B226" t="str">
-        <v>Thursday</v>
+        <v>Wednesday</v>
       </c>
       <c r="C226" t="str">
         <v>417 Meadow Lane</v>
@@ -11723,10 +11723,10 @@
     </row>
     <row r="227">
       <c r="A227" t="str">
-        <v>2026-03-27</v>
+        <v>2026-03-26</v>
       </c>
       <c r="B227" t="str">
-        <v>Friday</v>
+        <v>Thursday</v>
       </c>
       <c r="C227" t="str">
         <v>417 Meadow Lane</v>
@@ -11773,10 +11773,10 @@
     </row>
     <row r="228">
       <c r="A228" t="str">
-        <v>2026-03-28</v>
+        <v>2026-03-27</v>
       </c>
       <c r="B228" t="str">
-        <v>Saturday</v>
+        <v>Friday</v>
       </c>
       <c r="C228" t="str">
         <v>417 Meadow Lane</v>
@@ -11823,10 +11823,10 @@
     </row>
     <row r="229">
       <c r="A229" t="str">
-        <v>2026-03-29</v>
+        <v>2026-03-28</v>
       </c>
       <c r="B229" t="str">
-        <v>Sunday</v>
+        <v>Saturday</v>
       </c>
       <c r="C229" t="str">
         <v>417 Meadow Lane</v>
@@ -11873,10 +11873,10 @@
     </row>
     <row r="230">
       <c r="A230" t="str">
-        <v>2026-03-30</v>
+        <v>2026-03-29</v>
       </c>
       <c r="B230" t="str">
-        <v>Monday</v>
+        <v>Sunday</v>
       </c>
       <c r="C230" t="str">
         <v>417 Meadow Lane</v>
@@ -11923,10 +11923,10 @@
     </row>
     <row r="231">
       <c r="A231" t="str">
-        <v>2026-03-31</v>
+        <v>2026-03-30</v>
       </c>
       <c r="B231" t="str">
-        <v>Tuesday</v>
+        <v>Monday</v>
       </c>
       <c r="C231" t="str">
         <v>417 Meadow Lane</v>
@@ -11973,10 +11973,10 @@
     </row>
     <row r="232">
       <c r="A232" t="str">
-        <v>2026-04-01</v>
+        <v>2026-03-31</v>
       </c>
       <c r="B232" t="str">
-        <v>Wednesday</v>
+        <v>Tuesday</v>
       </c>
       <c r="C232" t="str">
         <v>417 Meadow Lane</v>
@@ -12023,10 +12023,10 @@
     </row>
     <row r="233">
       <c r="A233" t="str">
-        <v>2026-04-02</v>
+        <v>2026-04-01</v>
       </c>
       <c r="B233" t="str">
-        <v>Thursday</v>
+        <v>Wednesday</v>
       </c>
       <c r="C233" t="str">
         <v>417 Meadow Lane</v>
@@ -12073,10 +12073,10 @@
     </row>
     <row r="234">
       <c r="A234" t="str">
-        <v>2026-04-03</v>
+        <v>2026-04-02</v>
       </c>
       <c r="B234" t="str">
-        <v>Friday</v>
+        <v>Thursday</v>
       </c>
       <c r="C234" t="str">
         <v>417 Meadow Lane</v>
@@ -12123,10 +12123,10 @@
     </row>
     <row r="235">
       <c r="A235" t="str">
-        <v>2026-04-04</v>
+        <v>2026-04-03</v>
       </c>
       <c r="B235" t="str">
-        <v>Saturday</v>
+        <v>Friday</v>
       </c>
       <c r="C235" t="str">
         <v>417 Meadow Lane</v>
@@ -12173,10 +12173,10 @@
     </row>
     <row r="236">
       <c r="A236" t="str">
-        <v>2026-04-05</v>
+        <v>2026-04-04</v>
       </c>
       <c r="B236" t="str">
-        <v>Sunday</v>
+        <v>Saturday</v>
       </c>
       <c r="C236" t="str">
         <v>417 Meadow Lane</v>
@@ -12223,19 +12223,19 @@
     </row>
     <row r="237">
       <c r="A237" t="str">
-        <v>2026-04-06</v>
+        <v>2026-04-05</v>
       </c>
       <c r="B237" t="str">
-        <v>Monday</v>
+        <v>Sunday</v>
       </c>
       <c r="C237" t="str">
-        <v>Cernobbio</v>
+        <v>417 Meadow Lane</v>
       </c>
       <c r="D237" t="str">
-        <v>Cernobbio</v>
+        <v>Oxford</v>
       </c>
       <c r="E237" t="str">
-        <v>Italy</v>
+        <v>UK</v>
       </c>
       <c r="F237" t="str">
         <v/>
@@ -12273,19 +12273,19 @@
     </row>
     <row r="238">
       <c r="A238" t="str">
-        <v>2026-04-07</v>
+        <v>2026-04-06</v>
       </c>
       <c r="B238" t="str">
-        <v>Tuesday</v>
+        <v>Monday</v>
       </c>
       <c r="C238" t="str">
-        <v>417 Meadow Lane</v>
+        <v>Cernobbio</v>
       </c>
       <c r="D238" t="str">
-        <v>Oxford</v>
+        <v>Cernobbio</v>
       </c>
       <c r="E238" t="str">
-        <v>UK</v>
+        <v>Italy</v>
       </c>
       <c r="F238" t="str">
         <v/>
@@ -12323,10 +12323,10 @@
     </row>
     <row r="239">
       <c r="A239" t="str">
-        <v>2026-04-08</v>
+        <v>2026-04-07</v>
       </c>
       <c r="B239" t="str">
-        <v>Wednesday</v>
+        <v>Tuesday</v>
       </c>
       <c r="C239" t="str">
         <v>417 Meadow Lane</v>
@@ -12373,10 +12373,10 @@
     </row>
     <row r="240">
       <c r="A240" t="str">
-        <v>2026-04-09</v>
+        <v>2026-04-08</v>
       </c>
       <c r="B240" t="str">
-        <v>Thursday</v>
+        <v>Wednesday</v>
       </c>
       <c r="C240" t="str">
         <v>417 Meadow Lane</v>
@@ -12423,10 +12423,10 @@
     </row>
     <row r="241">
       <c r="A241" t="str">
-        <v>2026-04-10</v>
+        <v>2026-04-09</v>
       </c>
       <c r="B241" t="str">
-        <v>Friday</v>
+        <v>Thursday</v>
       </c>
       <c r="C241" t="str">
         <v>417 Meadow Lane</v>
@@ -12473,10 +12473,10 @@
     </row>
     <row r="242">
       <c r="A242" t="str">
-        <v>2026-04-11</v>
+        <v>2026-04-10</v>
       </c>
       <c r="B242" t="str">
-        <v>Saturday</v>
+        <v>Friday</v>
       </c>
       <c r="C242" t="str">
         <v>417 Meadow Lane</v>
@@ -12523,10 +12523,10 @@
     </row>
     <row r="243">
       <c r="A243" t="str">
-        <v>2026-04-12</v>
+        <v>2026-04-11</v>
       </c>
       <c r="B243" t="str">
-        <v>Sunday</v>
+        <v>Saturday</v>
       </c>
       <c r="C243" t="str">
         <v>417 Meadow Lane</v>
@@ -12573,10 +12573,10 @@
     </row>
     <row r="244">
       <c r="A244" t="str">
-        <v>2026-04-13</v>
+        <v>2026-04-12</v>
       </c>
       <c r="B244" t="str">
-        <v>Monday</v>
+        <v>Sunday</v>
       </c>
       <c r="C244" t="str">
         <v>417 Meadow Lane</v>
@@ -12623,10 +12623,10 @@
     </row>
     <row r="245">
       <c r="A245" t="str">
-        <v>2026-04-14</v>
+        <v>2026-04-13</v>
       </c>
       <c r="B245" t="str">
-        <v>Tuesday</v>
+        <v>Monday</v>
       </c>
       <c r="C245" t="str">
         <v>417 Meadow Lane</v>
@@ -12673,10 +12673,10 @@
     </row>
     <row r="246">
       <c r="A246" t="str">
-        <v>2026-04-15</v>
+        <v>2026-04-14</v>
       </c>
       <c r="B246" t="str">
-        <v>Wednesday</v>
+        <v>Tuesday</v>
       </c>
       <c r="C246" t="str">
         <v>417 Meadow Lane</v>
@@ -12723,10 +12723,10 @@
     </row>
     <row r="247">
       <c r="A247" t="str">
-        <v>2026-04-16</v>
+        <v>2026-04-15</v>
       </c>
       <c r="B247" t="str">
-        <v>Thursday</v>
+        <v>Wednesday</v>
       </c>
       <c r="C247" t="str">
         <v>417 Meadow Lane</v>
@@ -12773,10 +12773,10 @@
     </row>
     <row r="248">
       <c r="A248" t="str">
-        <v>2026-04-17</v>
+        <v>2026-04-16</v>
       </c>
       <c r="B248" t="str">
-        <v>Friday</v>
+        <v>Thursday</v>
       </c>
       <c r="C248" t="str">
         <v>417 Meadow Lane</v>
@@ -12823,10 +12823,10 @@
     </row>
     <row r="249">
       <c r="A249" t="str">
-        <v>2026-04-18</v>
+        <v>2026-04-17</v>
       </c>
       <c r="B249" t="str">
-        <v>Saturday</v>
+        <v>Friday</v>
       </c>
       <c r="C249" t="str">
         <v>417 Meadow Lane</v>
@@ -12873,10 +12873,10 @@
     </row>
     <row r="250">
       <c r="A250" t="str">
-        <v>2026-04-19</v>
+        <v>2026-04-18</v>
       </c>
       <c r="B250" t="str">
-        <v>Sunday</v>
+        <v>Saturday</v>
       </c>
       <c r="C250" t="str">
         <v>417 Meadow Lane</v>
@@ -12923,10 +12923,10 @@
     </row>
     <row r="251">
       <c r="A251" t="str">
-        <v>2026-04-20</v>
+        <v>2026-04-19</v>
       </c>
       <c r="B251" t="str">
-        <v>Monday</v>
+        <v>Sunday</v>
       </c>
       <c r="C251" t="str">
         <v>417 Meadow Lane</v>
@@ -12973,10 +12973,10 @@
     </row>
     <row r="252">
       <c r="A252" t="str">
-        <v>2026-04-21</v>
+        <v>2026-04-20</v>
       </c>
       <c r="B252" t="str">
-        <v>Tuesday</v>
+        <v>Monday</v>
       </c>
       <c r="C252" t="str">
         <v>417 Meadow Lane</v>
@@ -13023,10 +13023,10 @@
     </row>
     <row r="253">
       <c r="A253" t="str">
-        <v>2026-04-22</v>
+        <v>2026-04-21</v>
       </c>
       <c r="B253" t="str">
-        <v>Wednesday</v>
+        <v>Tuesday</v>
       </c>
       <c r="C253" t="str">
         <v>417 Meadow Lane</v>
@@ -13073,10 +13073,10 @@
     </row>
     <row r="254">
       <c r="A254" t="str">
-        <v>2026-04-23</v>
+        <v>2026-04-22</v>
       </c>
       <c r="B254" t="str">
-        <v>Thursday</v>
+        <v>Wednesday</v>
       </c>
       <c r="C254" t="str">
         <v>417 Meadow Lane</v>
@@ -13123,10 +13123,10 @@
     </row>
     <row r="255">
       <c r="A255" t="str">
-        <v>2026-04-24</v>
+        <v>2026-04-23</v>
       </c>
       <c r="B255" t="str">
-        <v>Friday</v>
+        <v>Thursday</v>
       </c>
       <c r="C255" t="str">
         <v>417 Meadow Lane</v>
@@ -13173,10 +13173,10 @@
     </row>
     <row r="256">
       <c r="A256" t="str">
-        <v>2026-04-25</v>
+        <v>2026-04-24</v>
       </c>
       <c r="B256" t="str">
-        <v>Saturday</v>
+        <v>Friday</v>
       </c>
       <c r="C256" t="str">
         <v>417 Meadow Lane</v>
@@ -13223,10 +13223,10 @@
     </row>
     <row r="257">
       <c r="A257" t="str">
-        <v>2026-04-26</v>
+        <v>2026-04-25</v>
       </c>
       <c r="B257" t="str">
-        <v>Sunday</v>
+        <v>Saturday</v>
       </c>
       <c r="C257" t="str">
         <v>417 Meadow Lane</v>
@@ -13271,9 +13271,59 @@
         <v/>
       </c>
     </row>
+    <row r="258">
+      <c r="A258" t="str">
+        <v>2026-04-26</v>
+      </c>
+      <c r="B258" t="str">
+        <v>Sunday</v>
+      </c>
+      <c r="C258" t="str">
+        <v>417 Meadow Lane</v>
+      </c>
+      <c r="D258" t="str">
+        <v>Oxford</v>
+      </c>
+      <c r="E258" t="str">
+        <v>UK</v>
+      </c>
+      <c r="F258" t="str">
+        <v/>
+      </c>
+      <c r="G258" t="str">
+        <v/>
+      </c>
+      <c r="H258" t="str">
+        <v/>
+      </c>
+      <c r="I258" t="str">
+        <v/>
+      </c>
+      <c r="J258" t="str">
+        <v/>
+      </c>
+      <c r="K258" t="str">
+        <v>Manual</v>
+      </c>
+      <c r="L258" t="str">
+        <v/>
+      </c>
+      <c r="M258" t="str">
+        <v/>
+      </c>
+      <c r="N258" t="str">
+        <v/>
+      </c>
+      <c r="O258" t="str">
+        <v/>
+      </c>
+      <c r="P258" t="str">
+        <v/>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:P257"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:P258"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -13302,7 +13352,7 @@
         <v>UK</v>
       </c>
       <c r="B2">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -13398,7 +13448,7 @@
         <v>UK nights (max 90)</v>
       </c>
       <c r="B15">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16">
@@ -13422,7 +13472,7 @@
         <v>Total entries</v>
       </c>
       <c r="B18">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="20">
@@ -13430,7 +13480,7 @@
         <v>Backup date</v>
       </c>
       <c r="B20" t="str">
-        <v>2026-02-21</v>
+        <v>2026-02-22</v>
       </c>
     </row>
   </sheetData>
